--- a/mmo_excel/xlsx/hero.xlsx
+++ b/mmo_excel/xlsx/hero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\mmo_demo\mmo_excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B2ED1D-0819-4129-9477-E0BF41EAA54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D896AC58-545F-4811-BAB7-F1C4CDFA46CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10155" yWindow="4365" windowWidth="21600" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9750" yWindow="1575" windowWidth="21600" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,61 @@
   </si>
   <si>
     <t>法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>des</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>初始技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>initSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1001,1002,1003,1004]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1101,1102,1103,1104]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能解锁等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillUnlockLv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2,3,4]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,55 +436,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="5" max="5" width="21.375" customWidth="1"/>
+    <col min="6" max="6" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>1001</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
+      </c>
+      <c r="D6">
+        <v>1101</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/mmo_excel/xlsx/hero.xlsx
+++ b/mmo_excel/xlsx/hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\mmo_demo\mmo_excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D896AC58-545F-4811-BAB7-F1C4CDFA46CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051DB7CE-7352-4407-9853-8F032A5F793B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9750" yWindow="1575" windowWidth="21600" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,10 +36,6 @@
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -439,7 +435,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -454,19 +450,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -474,19 +470,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -503,30 +499,30 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -534,16 +530,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>1001</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -551,16 +547,16 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>1101</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
